--- a/Trabajo Practico nº2/Libreria/Detalles scrap y MP.xlsx
+++ b/Trabajo Practico nº2/Libreria/Detalles scrap y MP.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8445"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8445" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle Costos" sheetId="1" r:id="rId1"/>
     <sheet name="Detalle Costos Scrap" sheetId="2" r:id="rId2"/>
     <sheet name="Detalle Costos MP" sheetId="3" r:id="rId3"/>
     <sheet name="Detalle Devolución Mercs" sheetId="4" r:id="rId4"/>
+    <sheet name="Detalles Costos Con Mejoras" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>Descripción</t>
   </si>
@@ -245,6 +246,36 @@
   </si>
   <si>
     <t>Campetella</t>
+  </si>
+  <si>
+    <t>Mantenimiento Preventivo Máquinas</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Monitoreo Continuo</t>
+  </si>
+  <si>
+    <t>Visita a Proveedores</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>Capacitación Operarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materia Prima Defectuosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devolución de Mercadería </t>
+  </si>
+  <si>
+    <t>Evaluacion</t>
   </si>
 </sst>
 </file>
@@ -254,9 +285,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="_ [$$-2C0A]\ * #,##0_ ;_ [$$-2C0A]\ * \-#,##0_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$$-2C0A]\ * #,##0_ ;_ [$$-2C0A]\ * \-#,##0_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +356,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -402,7 +439,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,15 +654,23 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -638,87 +683,87 @@
     <cellStyle name="Normal 8" xfId="8"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -737,12 +782,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -750,6 +795,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -837,25 +885,67 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -892,6 +982,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -947,6 +1073,22 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -955,6 +1097,218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES_tradnl"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Prevención</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalles Costos Con Mejoras'!$B$34:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Evaluación</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalles Costos Con Mejoras'!$C$34:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3034.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3034.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fallas Internas</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalles Costos Con Mejoras'!$D$34:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9900.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Fallas Externas</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalles Costos Con Mejoras'!$E$34:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1342.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="96814976"/>
+        <c:axId val="96817152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96814976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96817152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96817152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96814976"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico" title="Antes de la Mejora"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,6 +1322,34 @@
     <tableColumn id="5" name="Columna5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla116" displayName="Tabla116" ref="B4:F19" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B4:F19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" dataDxfId="10"/>
+    <tableColumn id="2" name="Columna2"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="9"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="8"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B32:F35" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="B32:F35"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1" dataDxfId="5"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="4"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="3"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="2"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -994,14 +1376,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B4:F16" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B4:F16" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="B4:F16"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="9"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="37"/>
     <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="8"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="7"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="6"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="36"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="35"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1011,26 +1393,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:I17" totalsRowShown="0">
   <autoFilter ref="C3:I17"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Columna1" dataDxfId="26" dataCellStyle="Normal 7"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="25" dataCellStyle="Normal 7"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="24" dataCellStyle="Normal 7"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="23" dataCellStyle="Normal 7"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="21" dataCellStyle="Normal 7"/>
-    <tableColumn id="8" name="Columna8" dataDxfId="20" dataCellStyle="Normal 7"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="33" dataCellStyle="Normal 7"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="32" dataCellStyle="Normal 7"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="31" dataCellStyle="Normal 7"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="30" dataCellStyle="Normal 7"/>
+    <tableColumn id="6" name="Columna6" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Columna7" dataDxfId="28" dataCellStyle="Normal 7"/>
+    <tableColumn id="8" name="Columna8" dataDxfId="27" dataCellStyle="Normal 7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="K3:P9" totalsRowShown="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="K3:P9" totalsRowShown="0" tableBorderDxfId="26">
   <autoFilter ref="K3:P9"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Producción de IP"/>
-    <tableColumn id="2" name="Columna1" dataDxfId="3"/>
-    <tableColumn id="3" name="Columna2" dataDxfId="2"/>
-    <tableColumn id="4" name="Columna3" dataDxfId="1"/>
+    <tableColumn id="2" name="Columna1" dataDxfId="25"/>
+    <tableColumn id="3" name="Columna2" dataDxfId="24"/>
+    <tableColumn id="4" name="Columna3" dataDxfId="23"/>
     <tableColumn id="5" name="Columna4"/>
     <tableColumn id="6" name="Columna5"/>
   </tableColumns>
@@ -1042,13 +1424,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C3:J20" totalsRowShown="0">
   <autoFilter ref="C3:J20"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Columna1" dataDxfId="19" dataCellStyle="Normal 4"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="22" dataCellStyle="Normal 4"/>
     <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="0" dataCellStyle="Normal 4"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="18" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="21" dataCellStyle="Normal 4"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="20" dataCellStyle="Normal 4"/>
     <tableColumn id="5" name="Columna5"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="16"/>
+    <tableColumn id="6" name="Columna6" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Columna7" dataDxfId="18"/>
     <tableColumn id="8" name="Columna8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1056,13 +1438,49 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="C3:F9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="C3:F9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="C3:F9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Columna1" dataDxfId="15"/>
     <tableColumn id="2" name="Columna2" dataDxfId="14"/>
     <tableColumn id="4" name="Columna4" dataDxfId="13"/>
     <tableColumn id="5" name="Columna5" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla43" displayName="Tabla43" ref="B2:F3" totalsRowShown="0">
+  <autoFilter ref="B2:F3"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Columna1"/>
+    <tableColumn id="2" name="Columna2"/>
+    <tableColumn id="3" name="Columna3"/>
+    <tableColumn id="4" name="Columna4"/>
+    <tableColumn id="5" name="Columna5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla84" displayName="Tabla84" ref="B24:F26" totalsRowShown="0">
+  <autoFilter ref="B24:F26"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Prevención" dataDxfId="6">
+      <calculatedColumnFormula>F5+F6+F7+F8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Evaluación">
+      <calculatedColumnFormula>C24*F25/F24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Fallas Internas">
+      <calculatedColumnFormula>D24*F25/F24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Fallas Externas">
+      <calculatedColumnFormula>E24*F25/F24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1357,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,4 +2914,440 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="102">
+        <v>250</v>
+      </c>
+      <c r="F5" s="97">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="103">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="97">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="103">
+        <v>70</v>
+      </c>
+      <c r="F7" s="97">
+        <f>Tabla116[[#This Row],[Columna4]]*Tabla116[[#This Row],[Columna3]]</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="58">
+        <f>2*Tabla116[[#This Row],[Columna4]]</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="58">
+        <v>34.08</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>800</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="F11" s="96">
+        <f>D11*E11</f>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="59">
+        <v>2.29</v>
+      </c>
+      <c r="F12" s="97">
+        <f>D12*E12</f>
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="97"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9.58</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D15*E15</f>
+        <v>76.64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" ref="B25" si="0">F5+F6+F7+F8</f>
+        <v>5030</v>
+      </c>
+      <c r="C25" s="2">
+        <f>F9+F11+F12</f>
+        <v>3034.08</v>
+      </c>
+      <c r="D25" s="2">
+        <f>F14+F15+F16+F17</f>
+        <v>76.64</v>
+      </c>
+      <c r="E25" s="2">
+        <f>F19</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f>B25+C25+D25+E25</f>
+        <v>8140.72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="60">
+        <f>B25*F26/F25</f>
+        <v>0.6178814650301202</v>
+      </c>
+      <c r="C26" s="61">
+        <f>C25*F26/F25</f>
+        <v>0.3727041342780491</v>
+      </c>
+      <c r="D26" s="61">
+        <f>D25*F26/F25</f>
+        <v>9.4144006918306985E-3</v>
+      </c>
+      <c r="E26" s="61">
+        <f>E25*F26/F25</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="104">
+        <f>'Detalle Costos'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="104">
+        <f>'Detalle Costos'!C22</f>
+        <v>3034.08</v>
+      </c>
+      <c r="D34" s="104">
+        <f>'Detalle Costos'!D22</f>
+        <v>9900.84</v>
+      </c>
+      <c r="E34" s="104">
+        <f>'Detalle Costos'!E22</f>
+        <v>1342.93</v>
+      </c>
+      <c r="F34" s="104">
+        <f>Tabla7[[#This Row],[Columna1]]+Tabla7[[#This Row],[Columna2]]+Tabla7[[#This Row],[Columna3]]+Tabla7[[#This Row],[Columna4]]</f>
+        <v>14277.85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="104">
+        <f>B25</f>
+        <v>5030</v>
+      </c>
+      <c r="C35" s="104">
+        <f t="shared" ref="C35:E35" si="1">C25</f>
+        <v>3034.08</v>
+      </c>
+      <c r="D35" s="104">
+        <f t="shared" si="1"/>
+        <v>76.64</v>
+      </c>
+      <c r="E35" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="104">
+        <f>Tabla7[[#This Row],[Columna1]]+Tabla7[[#This Row],[Columna2]]+Tabla7[[#This Row],[Columna3]]+Tabla7[[#This Row],[Columna4]]</f>
+        <v>8140.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Trabajo Practico nº2/Libreria/Detalles scrap y MP.xlsx
+++ b/Trabajo Practico nº2/Libreria/Detalles scrap y MP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8445" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8445" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle Costos" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="Detalle Devolución Mercs" sheetId="4" r:id="rId4"/>
     <sheet name="Detalles Costos Con Mejoras" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
   <si>
     <t>Descripción</t>
   </si>
@@ -227,9 +230,6 @@
     <t>Cantida Total</t>
   </si>
   <si>
-    <t>especificar costo de tirar el producto</t>
-  </si>
-  <si>
     <t>Devolución de Mercadería</t>
   </si>
   <si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>Evaluacion</t>
+  </si>
+  <si>
+    <t>07-06</t>
+  </si>
+  <si>
+    <t>13-06</t>
+  </si>
+  <si>
+    <t>20-06</t>
+  </si>
+  <si>
+    <t>27-06</t>
+  </si>
+  <si>
+    <t>05-07</t>
+  </si>
+  <si>
+    <t>07-07</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +397,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,7 +463,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,7 +607,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,6 +694,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -683,7 +738,34 @@
     <cellStyle name="Normal 8" xfId="8"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -763,9 +845,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -780,6 +859,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1113,6 +1195,986 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Porcentaje Costos de Calidad Antes de la Mejora</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13053477690288715"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Porcentaje Costos de Calidad Antes de la Mejora</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalle Costos'!$C$21:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Evaluación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fallas Internas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fallas Externas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Costos'!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.60269021829649272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3252019174733693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2107864230138E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES_tradnl"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="129"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="29"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Defectos en la Producción de IP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cantidad de Defectos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Detalle Costos Scrap'!$D$6:$D$8,'Detalle Costos Scrap'!$D$12:$D$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOLDADURA DEFECTUOSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PUNZONADO DEFECTUOSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GOLPES</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ENSAYO DE ARRANCAMIENTO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SOLDADURA DEFECTUOSA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FALLA DEL OPERARIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Detalle Costos Scrap'!$F$6:$F$8,'Detalle Costos Scrap'!$F$12:$F$14)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="135709824"/>
+        <c:axId val="135772416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135709824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135772416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135772416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135709824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES_tradnl"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12943455790711444"/>
+          <c:y val="0.14754753754279004"/>
+          <c:w val="0.54052768332961509"/>
+          <c:h val="0.56001229606557401"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cantidad de Defectos</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalle Costos Scrap'!$M$16:$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOLDADURA DEFECTUOSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PUNZONADO DEFECTUOSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ENSAYO DE ARRANCAMIENTO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SOLDADURA DEFECTUOSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GOLPES</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FALLA DEL OPERARIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Costos Scrap'!$O$16:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140130176"/>
+        <c:axId val="140131712"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Frecuencia Acumulada</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalle Costos Scrap'!$M$16:$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOLDADURA DEFECTUOSA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PUNZONADO DEFECTUOSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ENSAYO DE ARRANCAMIENTO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SOLDADURA DEFECTUOSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GOLPES</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FALLA DEL OPERARIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Costos Scrap'!$P$16:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="134157056"/>
+        <c:axId val="48447488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140130176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140131712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140131712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140130176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="48447488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134157056"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="134157056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48447488"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES_tradnl"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1231772788166753E-2"/>
+          <c:y val="0.20285278616053087"/>
+          <c:w val="0.62853857751134445"/>
+          <c:h val="0.72141536735977319"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detalle Costos Scrap'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad Inspeccionada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalle Costos Scrap'!$L$4:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>07-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13-06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20-06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27-06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Costos Scrap'!$L$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detalle Costos Scrap'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad Rechazada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalle Costos Scrap'!$L$4:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>07-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13-06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20-06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27-06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Costos Scrap'!$L$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="148554112"/>
+        <c:axId val="148837120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148554112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148837120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148837120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148554112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES_tradnl"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14163713910761153"/>
+          <c:y val="0.20724969074039579"/>
+          <c:w val="0.46236286089238843"/>
+          <c:h val="0.69852689662688616"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detalle Devolución Mercs'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mercadería Posible Retrabajo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Productos IP</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Devolución Mercs'!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detalle Devolución Mercs'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mercadería Desechada (Scrap)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Productos IP</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detalle Devolución Mercs'!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="134085248"/>
+        <c:axId val="135556096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="134085248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135556096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135556096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134085248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES_tradnl"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1157,10 +2219,10 @@
                 <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3034.08</c:v>
+                  <c:v>17550.080000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3034.08</c:v>
+                  <c:v>17550.080000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,7 +2242,7 @@
                 <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9900.84</c:v>
+                  <c:v>9469.7400000000016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>76.64</c:v>
@@ -1203,7 +2265,7 @@
                 <c:formatCode>_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1342.93</c:v>
+                  <c:v>2099.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1222,11 +2284,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="96814976"/>
-        <c:axId val="96817152"/>
+        <c:axId val="86325504"/>
+        <c:axId val="86331392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96814976"/>
+        <c:axId val="86325504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96817152"/>
+        <c:crossAx val="86331392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96817152"/>
+        <c:axId val="86331392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96814976"/>
+        <c:crossAx val="86325504"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,6 +2339,683 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1176619</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico" title="Motivos de Scrap"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212909</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00529</cdr:x>
+      <cdr:y>0.02243</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96242</cdr:x>
+      <cdr:y>0.09441</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="4 CuadroTexto"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="32359" y="106829"/>
+          <a:ext cx="5856134" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1"/>
+            <a:t>Motivos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" b="1" baseline="0"/>
+            <a:t> de Scrap en Producción de IP</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09534</cdr:x>
+      <cdr:y>0.04143</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91278</cdr:x>
+      <cdr:y>0.12303</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="11 CuadroTexto"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="526679" y="174064"/>
+          <a:ext cx="4515970" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600"/>
+            <a:t>Cantidad</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" baseline="0"/>
+            <a:t> Inspeccionada Versus Cantidad Rechazada</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="239809" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="2181225"/>
+          <a:ext cx="239809" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1100"/>
+            <a:t>s</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32865</cdr:x>
+      <cdr:y>0.03479</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.725</cdr:x>
+      <cdr:y>0.13631</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="4 CuadroTexto"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2003425" y="117475"/>
+          <a:ext cx="2416175" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600"/>
+            <a:t>Devolución</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES_tradnl" sz="1600" baseline="0"/>
+            <a:t> de Mercadería</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1600"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1311,6 +3050,151 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+      <sheetName val="Hoja4"/>
+      <sheetName val="Hoja5"/>
+      <sheetName val="Diag. Paretto"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>121 izq</v>
+          </cell>
+          <cell r="C3">
+            <v>38</v>
+          </cell>
+          <cell r="D3">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>121 der</v>
+          </cell>
+          <cell r="C4">
+            <v>38</v>
+          </cell>
+          <cell r="D4">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>343</v>
+          </cell>
+          <cell r="C5">
+            <v>33</v>
+          </cell>
+          <cell r="D5">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>125</v>
+          </cell>
+          <cell r="C6">
+            <v>23</v>
+          </cell>
+          <cell r="D6">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>427 izq</v>
+          </cell>
+          <cell r="C7">
+            <v>16</v>
+          </cell>
+          <cell r="D7">
+            <v>148</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>427 der</v>
+          </cell>
+          <cell r="C8">
+            <v>10</v>
+          </cell>
+          <cell r="D8">
+            <v>158</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>327 der</v>
+          </cell>
+          <cell r="C9">
+            <v>9</v>
+          </cell>
+          <cell r="D9">
+            <v>167</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>338</v>
+          </cell>
+          <cell r="C10">
+            <v>6</v>
+          </cell>
+          <cell r="D10">
+            <v>173</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>326</v>
+          </cell>
+          <cell r="C11">
+            <v>6</v>
+          </cell>
+          <cell r="D11">
+            <v>179</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>327 izq</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>348</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>180</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B2:F3" totalsRowShown="0">
   <autoFilter ref="B2:F3"/>
@@ -1326,28 +3210,30 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla116" displayName="Tabla116" ref="B4:F19" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B4:F19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla116" displayName="Tabla116" ref="B4:F20" totalsRowCount="1" headerRowDxfId="18">
+  <autoFilter ref="B4:F20"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="10"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="17" totalsRowDxfId="3"/>
     <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="9"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="8"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="7"/>
+    <tableColumn id="3" name="Columna3" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+      <totalsRowFormula>F15+F12+F11+F9+F8+F7+F6+F5</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Columna4" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B32:F35" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B32:F35" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="B32:F35"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="5"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="4"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="3"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="2"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="1"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="12"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="11"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="10"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="9"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1376,14 +3262,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B4:F16" totalsRowShown="0" headerRowDxfId="38">
-  <autoFilter ref="B4:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B4:F18" totalsRowCount="1" headerRowDxfId="46">
+  <autoFilter ref="B4:F18"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="37"/>
-    <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="36"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="35"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="34"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="45" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Columna2" totalsRowLabel="Total"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="44" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Columna4" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="5">
+      <totalsRowFormula>F6+F8+F9+F11+F12+F13+F14+F16</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Columna5" dataDxfId="42" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1393,26 +3281,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:I17" totalsRowShown="0">
   <autoFilter ref="C3:I17"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Columna1" dataDxfId="33" dataCellStyle="Normal 7"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="32" dataCellStyle="Normal 7"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="31" dataCellStyle="Normal 7"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="30" dataCellStyle="Normal 7"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="28" dataCellStyle="Normal 7"/>
-    <tableColumn id="8" name="Columna8" dataDxfId="27" dataCellStyle="Normal 7"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="41" dataCellStyle="Normal 7"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="40" dataCellStyle="Normal 7"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="39" dataCellStyle="Normal 7"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="38" dataCellStyle="Normal 7"/>
+    <tableColumn id="6" name="Columna6" dataDxfId="37" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Columna7" dataDxfId="36" dataCellStyle="Normal 7"/>
+    <tableColumn id="8" name="Columna8" dataDxfId="35" dataCellStyle="Normal 7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="K3:P9" totalsRowShown="0" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="K3:P9" totalsRowShown="0" tableBorderDxfId="34">
   <autoFilter ref="K3:P9"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Producción de IP"/>
-    <tableColumn id="2" name="Columna1" dataDxfId="25"/>
-    <tableColumn id="3" name="Columna2" dataDxfId="24"/>
-    <tableColumn id="4" name="Columna3" dataDxfId="23"/>
+    <tableColumn id="2" name="Columna1" dataDxfId="33"/>
+    <tableColumn id="3" name="Columna2" dataDxfId="32"/>
+    <tableColumn id="4" name="Columna3" dataDxfId="31"/>
     <tableColumn id="5" name="Columna4"/>
     <tableColumn id="6" name="Columna5"/>
   </tableColumns>
@@ -1424,13 +3312,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C3:J20" totalsRowShown="0">
   <autoFilter ref="C3:J20"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Columna1" dataDxfId="22" dataCellStyle="Normal 4"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="30" dataCellStyle="Normal 4"/>
     <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="21" dataCellStyle="Normal 4"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="20" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="29" dataCellStyle="Normal 4"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="28" dataCellStyle="Normal 4"/>
     <tableColumn id="5" name="Columna5"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="18"/>
+    <tableColumn id="6" name="Columna6" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Columna7" dataDxfId="26"/>
     <tableColumn id="8" name="Columna8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1438,13 +3326,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="C3:F9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="C3:F9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="C3:F9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Columna1" dataDxfId="15"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="14"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="13"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="12"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="23"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="22"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="21"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1468,7 +3356,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla84" displayName="Tabla84" ref="B24:F26" totalsRowShown="0">
   <autoFilter ref="B24:F26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prevención" dataDxfId="6">
+    <tableColumn id="1" name="Prevención" dataDxfId="19">
       <calculatedColumnFormula>F5+F6+F7+F8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Evaluación">
@@ -1775,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,14 +3761,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="4">
         <v>1.46</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="95">
         <f>D8*E8</f>
-        <v>1168</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1889,14 +3777,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>5800</v>
       </c>
       <c r="E9" s="59">
         <v>2.29</v>
       </c>
-      <c r="F9" s="97">
+      <c r="F9" s="96">
         <f>D9*E9</f>
-        <v>1832</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1904,7 +3792,7 @@
       <c r="C10" s="57"/>
       <c r="D10" s="3"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="97"/>
+      <c r="F10" s="96"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1929,14 +3817,14 @@
         <v>36</v>
       </c>
       <c r="D12" s="1">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2">
         <v>9.58</v>
       </c>
       <c r="F12" s="2">
         <f>D12*E12</f>
-        <v>1523.22</v>
+        <v>1092.1200000000001</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1989,13 +3877,25 @@
         <v>7</v>
       </c>
       <c r="F16" s="2">
-        <v>1342.93</v>
+        <v>2099.75</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <f>F6+F8+F9+F11+F12+F13+F14+F16</f>
+        <v>29119.57</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2024,19 +3924,19 @@
       </c>
       <c r="C22" s="2">
         <f>F6+F8+F9</f>
-        <v>3034.08</v>
+        <v>17550.080000000002</v>
       </c>
       <c r="D22" s="2">
         <f>F11+F12+F13+F14</f>
-        <v>9900.84</v>
+        <v>9469.7400000000016</v>
       </c>
       <c r="E22" s="2">
         <f>F16</f>
-        <v>1342.93</v>
+        <v>2099.75</v>
       </c>
       <c r="F22" s="2">
         <f>B22+C22+D22+E22</f>
-        <v>14277.85</v>
+        <v>29119.570000000003</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -2046,15 +3946,15 @@
       </c>
       <c r="C23" s="61">
         <f>C22*F23/F22</f>
-        <v>0.21250258267176078</v>
+        <v>0.60269021829649272</v>
       </c>
       <c r="D23" s="61">
         <f>D22*F23/F22</f>
-        <v>0.69344053901672875</v>
+        <v>0.3252019174733693</v>
       </c>
       <c r="E23" s="61">
         <f>E22*F23/F22</f>
-        <v>9.4056878311510494E-2</v>
+        <v>7.2107864230138E-2</v>
       </c>
       <c r="F23" s="60">
         <v>1</v>
@@ -2063,20 +3963,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:Q20"/>
+  <dimension ref="C2:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +4024,7 @@
       <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="66" t="s">
         <v>61</v>
       </c>
       <c r="L3" t="s">
@@ -2163,20 +4064,20 @@
       <c r="K4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="63">
-        <v>38875</v>
-      </c>
-      <c r="M4" s="63">
-        <v>38881</v>
-      </c>
-      <c r="N4" s="63">
-        <v>38888</v>
-      </c>
-      <c r="O4" s="63">
-        <v>38895</v>
-      </c>
-      <c r="P4" s="63">
-        <v>39268</v>
+      <c r="L4" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="118" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
@@ -2201,11 +4102,15 @@
       <c r="N5" s="62">
         <v>50</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <v>15</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="63">
         <v>100</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(Tabla13[[#This Row],[Columna1]:[Columna5]])</f>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
@@ -2225,27 +4130,27 @@
         <f>Tabla1[[#This Row],[Columna5]]*Tabla1[[#This Row],[Columna6]]</f>
         <v>435.66</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="100">
+      <c r="L6" s="99">
         <v>2</v>
       </c>
-      <c r="M6" s="100">
+      <c r="M6" s="99">
         <v>51</v>
       </c>
-      <c r="N6" s="100">
+      <c r="N6" s="99">
         <v>6</v>
       </c>
-      <c r="O6" s="100">
+      <c r="O6" s="99">
         <v>8</v>
       </c>
-      <c r="P6" s="100">
+      <c r="P6" s="99">
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>L6+M6+N6+O6</f>
-        <v>67</v>
+        <f>SUM(Tabla13[[#This Row],[Columna1]:[Columna5]])</f>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
@@ -2277,7 +4182,7 @@
       <c r="N7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="63" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="62" t="s">
@@ -2301,22 +4206,22 @@
         <f>Tabla1[[#This Row],[Columna5]]*Tabla1[[#This Row],[Columna6]]</f>
         <v>27.869999999999997</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="O8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2338,22 +4243,22 @@
         <f>I6+I7+I8</f>
         <v>565.72</v>
       </c>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="99" t="s">
+      <c r="L9" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="99" t="s">
+      <c r="N9" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="99" t="s">
+      <c r="O9" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="99" t="s">
+      <c r="P9" s="98" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2388,6 +4293,21 @@
       <c r="I12" s="39">
         <f>Tabla1[[#This Row],[Columna5]]*Tabla1[[#This Row],[Columna6]]</f>
         <v>4.62</v>
+      </c>
+      <c r="L12" s="117">
+        <v>38875</v>
+      </c>
+      <c r="M12" s="117">
+        <v>38881</v>
+      </c>
+      <c r="N12" s="117">
+        <v>38888</v>
+      </c>
+      <c r="O12" s="117">
+        <v>38895</v>
+      </c>
+      <c r="P12" s="117">
+        <v>39268</v>
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
@@ -2453,8 +4373,19 @@
       <c r="G16" s="43"/>
       <c r="H16" s="40"/>
       <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M16" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="109"/>
+      <c r="O16" s="111">
+        <v>53</v>
+      </c>
+      <c r="P16" s="116">
+        <f>O16</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
       <c r="E17" s="45" t="s">
@@ -2470,17 +4401,88 @@
         <f>I9+I15</f>
         <v>580.44000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
+      <c r="M17" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="106"/>
+      <c r="O17" s="113">
+        <v>11</v>
+      </c>
+      <c r="P17" s="116">
+        <f>P16+O17</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="104"/>
+      <c r="O18" s="115">
+        <v>11</v>
+      </c>
+      <c r="P18" s="116">
+        <f t="shared" ref="P18:P21" si="0">P17+O18</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="108"/>
+      <c r="O19" s="107">
+        <v>8</v>
+      </c>
+      <c r="P19" s="116">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M20" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="109"/>
+      <c r="O20" s="111">
+        <v>3</v>
+      </c>
+      <c r="P20" s="116">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="104"/>
+      <c r="O21" s="115">
+        <v>2</v>
+      </c>
+      <c r="P21" s="116">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="116">
+        <f>SUM(O16:O21)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="51"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2489,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,36 +4532,36 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="75" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="76" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="75"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="16"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="76"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="12"/>
@@ -2571,11 +4573,11 @@
       <c r="G6" s="34">
         <v>4</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="89">
         <v>15.61</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="68">
+      <c r="J6" s="67">
         <f>Tabla9[[#This Row],[Columna6]]*Tabla9[[#This Row],[Columna5]]</f>
         <v>62.44</v>
       </c>
@@ -2590,11 +4592,11 @@
       <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="89">
         <v>15.61</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="68">
+      <c r="J7" s="67">
         <f>Tabla9[[#This Row],[Columna6]]*Tabla9[[#This Row],[Columna5]]</f>
         <v>31.22</v>
       </c>
@@ -2610,7 +4612,7 @@
         <f>SUM(G6:G7)</f>
         <v>6</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="19" t="s">
         <v>17</v>
       </c>
@@ -2623,23 +4625,23 @@
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="91"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="78"/>
+      <c r="J9" s="77"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
@@ -2647,15 +4649,15 @@
         <v>18</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="85"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="22">
         <v>7</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="89">
         <v>4.5</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="69">
+      <c r="J11" s="68">
         <f>Tabla9[[#This Row],[Columna5]]*Tabla9[[#This Row],[Columna6]]</f>
         <v>31.5</v>
       </c>
@@ -2666,15 +4668,15 @@
         <v>19</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="85"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="22">
         <v>9</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="89">
         <v>2.19</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="69">
+      <c r="J12" s="68">
         <f>Tabla9[[#This Row],[Columna5]]*Tabla9[[#This Row],[Columna6]]</f>
         <v>19.71</v>
       </c>
@@ -2690,7 +4692,7 @@
         <f>SUM(G11:G12)</f>
         <v>16</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="19" t="s">
         <v>17</v>
       </c>
@@ -2700,26 +4702,26 @@
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="71"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="73"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="94"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="17"/>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="92"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="51"/>
-      <c r="J15" s="83"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
@@ -2727,15 +4729,15 @@
         <v>20</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="86"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="25">
         <v>7</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="89">
         <v>6.19</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="70">
+      <c r="J16" s="69">
         <f>Tabla9[[#This Row],[Columna5]]*Tabla9[[#This Row],[Columna6]]</f>
         <v>43.330000000000005</v>
       </c>
@@ -2746,32 +4748,32 @@
         <v>16</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="86"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="25">
         <v>1</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="89">
         <v>4.58</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="J17" s="70">
+      <c r="J17" s="69">
         <f>Tabla9[[#This Row],[Columna5]]*Tabla9[[#This Row],[Columna6]]</f>
         <v>4.58</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="87" t="s">
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="86" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="27">
         <f>SUM(G16:G17)</f>
         <v>8</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="87" t="s">
+      <c r="H18" s="94"/>
+      <c r="I18" s="86" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="38">
@@ -2780,28 +4782,28 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="71"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="88"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="87"/>
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="71"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="73" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="72" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="27">
         <f>G8+G13+G18</f>
         <v>30</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="89" t="s">
+      <c r="H20" s="93"/>
+      <c r="I20" s="88" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="38">
@@ -2819,10 +4821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F9"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +4835,7 @@
     <col min="5" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
@@ -2846,10 +4848,16 @@
       <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
@@ -2859,14 +4867,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -2876,9 +4884,9 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -2888,13 +4896,13 @@
         <v>1333.35</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2910,8 +4918,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2920,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,45 +4995,45 @@
         <v>4</v>
       </c>
       <c r="C5" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="102">
+      <c r="E5" s="101">
         <v>250</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="96">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="103">
+        <v>79</v>
+      </c>
+      <c r="E6" s="102">
         <v>1500</v>
       </c>
-      <c r="F6" s="97">
+      <c r="F6" s="96">
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="102">
         <v>70</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="96">
         <f>Tabla116[[#This Row],[Columna4]]*Tabla116[[#This Row],[Columna3]]</f>
         <v>280</v>
       </c>
@@ -3032,7 +5041,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4">
@@ -3073,14 +5082,14 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="E11" s="4">
         <v>1.46</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="95">
         <f>D11*E11</f>
-        <v>1168</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3089,14 +5098,14 @@
         <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>5800</v>
       </c>
       <c r="E12" s="59">
         <v>2.29</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="96">
         <f>D12*E12</f>
-        <v>1832</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -3104,14 +5113,14 @@
       <c r="C13" s="57"/>
       <c r="D13" s="3"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="97"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3142,7 +5151,7 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3165,7 +5174,7 @@
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="101">
+      <c r="F17" s="100">
         <v>0</v>
       </c>
     </row>
@@ -3180,7 +5189,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -3193,6 +5202,12 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="D20" s="4">
+        <f>F15+F12+F11+F9+F8+F7+F6+F5</f>
+        <v>22656.720000000001</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -3225,7 +5240,7 @@
       </c>
       <c r="C25" s="2">
         <f>F9+F11+F12</f>
-        <v>3034.08</v>
+        <v>17550.080000000002</v>
       </c>
       <c r="D25" s="2">
         <f>F14+F15+F16+F17</f>
@@ -3237,21 +5252,21 @@
       </c>
       <c r="F25" s="2">
         <f>B25+C25+D25+E25</f>
-        <v>8140.72</v>
+        <v>22656.720000000001</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="60">
         <f>B25*F26/F25</f>
-        <v>0.6178814650301202</v>
+        <v>0.22200918756112975</v>
       </c>
       <c r="C26" s="61">
         <f>C25*F26/F25</f>
-        <v>0.3727041342780491</v>
+        <v>0.77460815157710383</v>
       </c>
       <c r="D26" s="61">
         <f>D25*F26/F25</f>
-        <v>9.4144006918306985E-3</v>
+        <v>3.3826608617663987E-3</v>
       </c>
       <c r="E26" s="61">
         <f>E25*F26/F25</f>
@@ -3279,64 +5294,64 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="67" t="s">
+      <c r="C33" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="66" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="104">
+      <c r="B34" s="103">
         <f>'Detalle Costos'!B22</f>
         <v>0</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="103">
         <f>'Detalle Costos'!C22</f>
-        <v>3034.08</v>
-      </c>
-      <c r="D34" s="104">
+        <v>17550.080000000002</v>
+      </c>
+      <c r="D34" s="103">
         <f>'Detalle Costos'!D22</f>
-        <v>9900.84</v>
-      </c>
-      <c r="E34" s="104">
+        <v>9469.7400000000016</v>
+      </c>
+      <c r="E34" s="103">
         <f>'Detalle Costos'!E22</f>
-        <v>1342.93</v>
-      </c>
-      <c r="F34" s="104">
+        <v>2099.75</v>
+      </c>
+      <c r="F34" s="103">
         <f>Tabla7[[#This Row],[Columna1]]+Tabla7[[#This Row],[Columna2]]+Tabla7[[#This Row],[Columna3]]+Tabla7[[#This Row],[Columna4]]</f>
-        <v>14277.85</v>
+        <v>29119.570000000003</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="104">
+      <c r="B35" s="103">
         <f>B25</f>
         <v>5030</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="103">
         <f t="shared" ref="C35:E35" si="1">C25</f>
-        <v>3034.08</v>
-      </c>
-      <c r="D35" s="104">
+        <v>17550.080000000002</v>
+      </c>
+      <c r="D35" s="103">
         <f t="shared" si="1"/>
         <v>76.64</v>
       </c>
-      <c r="E35" s="104">
+      <c r="E35" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F35" s="103">
         <f>Tabla7[[#This Row],[Columna1]]+Tabla7[[#This Row],[Columna2]]+Tabla7[[#This Row],[Columna3]]+Tabla7[[#This Row],[Columna4]]</f>
-        <v>8140.72</v>
+        <v>22656.720000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo Practico nº2/Libreria/Detalles scrap y MP.xlsx
+++ b/Trabajo Practico nº2/Libreria/Detalles scrap y MP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8445" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18795" windowHeight="8445" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle Costos" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,12 @@
     <sheet name="Detalle Devolución Mercs" sheetId="4" r:id="rId4"/>
     <sheet name="Detalles Costos Con Mejoras" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>Descripción</t>
   </si>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <t>07-07</t>
+  </si>
+  <si>
+    <t>Antes de la Mejora</t>
+  </si>
+  <si>
+    <t>Después de la Mejora</t>
   </si>
 </sst>
 </file>
@@ -740,33 +743,6 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -849,10 +825,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1160,10 +1150,23 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1440,11 +1443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135709824"/>
-        <c:axId val="135772416"/>
+        <c:axId val="87008768"/>
+        <c:axId val="87010304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135709824"/>
+        <c:axId val="87008768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135772416"/>
+        <c:crossAx val="87010304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +1464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135772416"/>
+        <c:axId val="87010304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135709824"/>
+        <c:crossAx val="87008768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,8 +1598,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140130176"/>
-        <c:axId val="140131712"/>
+        <c:axId val="87308160"/>
+        <c:axId val="87309696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1672,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134157056"/>
-        <c:axId val="48447488"/>
+        <c:axId val="87321216"/>
+        <c:axId val="87319680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140130176"/>
+        <c:axId val="87308160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140131712"/>
+        <c:crossAx val="87309696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1693,7 +1696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140131712"/>
+        <c:axId val="87309696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,12 +1717,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140130176"/>
+        <c:crossAx val="87308160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48447488"/>
+        <c:axId val="87319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,12 +1732,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134157056"/>
+        <c:crossAx val="87321216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="134157056"/>
+        <c:axId val="87321216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1746,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48447488"/>
+        <c:crossAx val="87319680"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1752,7 +1756,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1935,11 +1938,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="148554112"/>
-        <c:axId val="148837120"/>
+        <c:axId val="87347968"/>
+        <c:axId val="87349504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148554112"/>
+        <c:axId val="87347968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148837120"/>
+        <c:crossAx val="87349504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +1960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148837120"/>
+        <c:axId val="87349504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,14 +1971,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148554112"/>
+        <c:crossAx val="87347968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2104,11 +2106,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="134085248"/>
-        <c:axId val="135556096"/>
+        <c:axId val="87104128"/>
+        <c:axId val="87105920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134085248"/>
+        <c:axId val="87104128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135556096"/>
+        <c:crossAx val="87105920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +2127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135556096"/>
+        <c:axId val="87105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2138,7 +2140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134085248"/>
+        <c:crossAx val="87104128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2177,7 +2179,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12904525634615002"/>
+          <c:y val="7.5467919470459041E-2"/>
+          <c:w val="0.67606885646789905"/>
+          <c:h val="0.84921708442837662"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2189,6 +2201,20 @@
             <c:v>Prevención</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalles Costos Con Mejoras'!$H$53:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Antes de la Mejora</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Después de la Mejora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detalles Costos Con Mejoras'!$B$34:$B$35</c:f>
@@ -2212,6 +2238,20 @@
             <c:v>Evaluación</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalles Costos Con Mejoras'!$H$53:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Antes de la Mejora</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Después de la Mejora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detalles Costos Con Mejoras'!$C$34:$C$35</c:f>
@@ -2235,6 +2275,20 @@
             <c:v>Fallas Internas</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalles Costos Con Mejoras'!$H$53:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Antes de la Mejora</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Después de la Mejora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detalles Costos Con Mejoras'!$D$34:$D$35</c:f>
@@ -2258,6 +2312,20 @@
             <c:v>Fallas Externas</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Detalles Costos Con Mejoras'!$H$53:$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Antes de la Mejora</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Después de la Mejora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detalles Costos Con Mejoras'!$E$34:$E$35</c:f>
@@ -2284,11 +2352,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="86325504"/>
-        <c:axId val="86331392"/>
+        <c:axId val="87545728"/>
+        <c:axId val="87547264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86325504"/>
+        <c:axId val="87545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86331392"/>
+        <c:crossAx val="87547264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86331392"/>
+        <c:axId val="87547264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86325504"/>
+        <c:crossAx val="87545728"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3026,9 +3094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3047,152 +3115,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="8277225"/>
+          <a:ext cx="333375" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES_tradnl" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-      <sheetName val="Hoja4"/>
-      <sheetName val="Hoja5"/>
-      <sheetName val="Diag. Paretto"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>121 izq</v>
-          </cell>
-          <cell r="C3">
-            <v>38</v>
-          </cell>
-          <cell r="D3">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>121 der</v>
-          </cell>
-          <cell r="C4">
-            <v>38</v>
-          </cell>
-          <cell r="D4">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>343</v>
-          </cell>
-          <cell r="C5">
-            <v>33</v>
-          </cell>
-          <cell r="D5">
-            <v>109</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>125</v>
-          </cell>
-          <cell r="C6">
-            <v>23</v>
-          </cell>
-          <cell r="D6">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>427 izq</v>
-          </cell>
-          <cell r="C7">
-            <v>16</v>
-          </cell>
-          <cell r="D7">
-            <v>148</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>427 der</v>
-          </cell>
-          <cell r="C8">
-            <v>10</v>
-          </cell>
-          <cell r="D8">
-            <v>158</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>327 der</v>
-          </cell>
-          <cell r="C9">
-            <v>9</v>
-          </cell>
-          <cell r="D9">
-            <v>167</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>338</v>
-          </cell>
-          <cell r="C10">
-            <v>6</v>
-          </cell>
-          <cell r="D10">
-            <v>173</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>326</v>
-          </cell>
-          <cell r="C11">
-            <v>6</v>
-          </cell>
-          <cell r="D11">
-            <v>179</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>327 izq</v>
-          </cell>
-          <cell r="C12">
-            <v>1</v>
-          </cell>
-          <cell r="D12">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>348</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>180</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3210,30 +3194,30 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla116" displayName="Tabla116" ref="B4:F20" totalsRowCount="1" headerRowDxfId="18">
-  <autoFilter ref="B4:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla116" displayName="Tabla116" ref="B4:F20" totalsRowCount="1" headerRowDxfId="14">
+  <autoFilter ref="B4:F19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="3" name="Columna3" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>F15+F12+F11+F9+F8+F7+F6+F5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Columna4" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B32:F35" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B32:F35" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="B32:F35"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="12"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="11"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="10"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="9"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="8"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="3"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="2"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="1"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3263,15 +3247,15 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="B4:F18" totalsRowCount="1" headerRowDxfId="46">
-  <autoFilter ref="B4:F18"/>
+  <autoFilter ref="B4:F17"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Columna1" dataDxfId="45" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="45" totalsRowDxfId="44"/>
     <tableColumn id="2" name="Columna2" totalsRowLabel="Total"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="44" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Columna4" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="5">
+    <tableColumn id="3" name="Columna3" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" name="Columna4" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>F6+F8+F9+F11+F12+F13+F14+F16</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Columna5" dataDxfId="42" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="39" totalsRowDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3281,26 +3265,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:I17" totalsRowShown="0">
   <autoFilter ref="C3:I17"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Columna1" dataDxfId="41" dataCellStyle="Normal 7"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="40" dataCellStyle="Normal 7"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="39" dataCellStyle="Normal 7"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="38" dataCellStyle="Normal 7"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="36" dataCellStyle="Normal 7"/>
-    <tableColumn id="8" name="Columna8" dataDxfId="35" dataCellStyle="Normal 7"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="37" dataCellStyle="Normal 7"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="36" dataCellStyle="Normal 7"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="35" dataCellStyle="Normal 7"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="34" dataCellStyle="Normal 7"/>
+    <tableColumn id="6" name="Columna6" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Columna7" dataDxfId="32" dataCellStyle="Normal 7"/>
+    <tableColumn id="8" name="Columna8" dataDxfId="31" dataCellStyle="Normal 7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="K3:P9" totalsRowShown="0" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="K3:P9" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="K3:P9"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Producción de IP"/>
-    <tableColumn id="2" name="Columna1" dataDxfId="33"/>
-    <tableColumn id="3" name="Columna2" dataDxfId="32"/>
-    <tableColumn id="4" name="Columna3" dataDxfId="31"/>
+    <tableColumn id="2" name="Columna1" dataDxfId="29"/>
+    <tableColumn id="3" name="Columna2" dataDxfId="28"/>
+    <tableColumn id="4" name="Columna3" dataDxfId="27"/>
     <tableColumn id="5" name="Columna4"/>
     <tableColumn id="6" name="Columna5"/>
   </tableColumns>
@@ -3312,13 +3296,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C3:J20" totalsRowShown="0">
   <autoFilter ref="C3:J20"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Columna1" dataDxfId="30" dataCellStyle="Normal 4"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="26" dataCellStyle="Normal 4"/>
     <tableColumn id="2" name="Columna2"/>
-    <tableColumn id="3" name="Columna3" dataDxfId="29" dataCellStyle="Normal 4"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="28" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" name="Columna3" dataDxfId="25" dataCellStyle="Normal 4"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="24" dataCellStyle="Normal 4"/>
     <tableColumn id="5" name="Columna5"/>
-    <tableColumn id="6" name="Columna6" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Columna7" dataDxfId="26"/>
+    <tableColumn id="6" name="Columna6" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Columna7" dataDxfId="22"/>
     <tableColumn id="8" name="Columna8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3326,13 +3310,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="C3:F9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="C3:F9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="C3:F9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Columna1" dataDxfId="23"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="22"/>
-    <tableColumn id="4" name="Columna4" dataDxfId="21"/>
-    <tableColumn id="5" name="Columna5" dataDxfId="20"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="19"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="18"/>
+    <tableColumn id="4" name="Columna4" dataDxfId="17"/>
+    <tableColumn id="5" name="Columna5" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3356,7 +3340,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla84" displayName="Tabla84" ref="B24:F26" totalsRowShown="0">
   <autoFilter ref="B24:F26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prevención" dataDxfId="19">
+    <tableColumn id="1" name="Prevención" dataDxfId="15">
       <calculatedColumnFormula>F5+F6+F7+F8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Evaluación">
@@ -3663,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4491,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,7 +4807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4927,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F35"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,6 +5338,16 @@
         <v>22656.720000000001</v>
       </c>
     </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
